--- a/data/trans_dic/P23_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede</t>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,94%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>7,44%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,68</t>
+          <t>0,75; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,95</t>
+          <t>1,92; 8,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,91</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 13,23</t>
+          <t>0,0; 6,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,74</t>
+          <t>2,85; 13,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>2,19; 14,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,98</t>
+          <t>0,73; 6,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 13,43</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,14</t>
+          <t>0,83; 5,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,46</t>
+          <t>0,56; 5,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,27</t>
+          <t>3,27; 13,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,25</t>
+          <t>2,01; 10,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 5,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 5,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 4,71</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 11,04</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 9,93</t>
         </is>
       </c>
     </row>
@@ -796,7 +905,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -806,52 +915,82 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,17%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,28%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,84%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>4,95%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,28%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>7,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>6,15%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,15</t>
+          <t>0,47; 4,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,39</t>
+          <t>0,87; 5,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 15,13</t>
+          <t>1,48; 9,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,6</t>
+          <t>3,29; 13,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,69</t>
+          <t>4,17; 15,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 7,83</t>
+          <t>2,48; 10,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,42</t>
+          <t>0,6; 4,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,68</t>
+          <t>1,99; 7,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,68</t>
+          <t>0,71; 7,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,26</t>
+          <t>2,02; 10,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,58</t>
+          <t>3,93; 13,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 6,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 2,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 5,45</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 7,14</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,58; 9,92</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 11,5</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,94%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>6,42%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,15%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,57%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>6,17%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,77</t>
+          <t>3,91; 10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 13,12</t>
+          <t>3,22; 15,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 18,3</t>
+          <t>3,12; 17,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 9,98</t>
+          <t>4,11; 14,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,52</t>
+          <t>3,23; 10,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,17</t>
+          <t>5,66; 19,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,81</t>
+          <t>2,85; 8,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,08</t>
+          <t>0,51; 2,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,92</t>
+          <t>3,24; 7,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,18</t>
+          <t>2,4; 7,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 11,52</t>
+          <t>3,73; 9,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,72</t>
+          <t>2,12; 7,7</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 8,72</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 7,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,74; 10,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 9,48</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 8,84</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 12,07</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>5,47%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,95%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>10,59%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>7,9%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,75</t>
+          <t>1,52; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,2</t>
+          <t>2,57; 10,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,95</t>
+          <t>2,44; 9,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,66</t>
+          <t>3,37; 9,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,8</t>
+          <t>2,59; 9,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,61</t>
+          <t>6,16; 16,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,12</t>
+          <t>5,98; 12,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 15,48</t>
+          <t>3,94; 8,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,63</t>
+          <t>5,77; 11,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,39</t>
+          <t>6,6; 13,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,6</t>
+          <t>6,81; 14,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,73</t>
+          <t>4,37; 10,64</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 8,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 8,32</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 8,69</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 10,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 10,9</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 11,92</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>13,18%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,52%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>7,48%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,31%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>10,2%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,93</t>
+          <t>3,81; 13,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,41</t>
+          <t>1,86; 6,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,68</t>
+          <t>2,65; 7,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 19,0</t>
+          <t>3,23; 12,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,82</t>
+          <t>8,38; 19,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 8,63</t>
+          <t>6,45; 15,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,42</t>
+          <t>2,95; 9,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,76</t>
+          <t>3,09; 8,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 10,23</t>
+          <t>2,94; 8,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,39</t>
+          <t>3,57; 11,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,15</t>
+          <t>4,29; 11,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 13,38</t>
+          <t>8,53; 17,68</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 9,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 6,51</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 7,12</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 10,0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 13,55</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 15,11</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>5,02%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,94</t>
+          <t>1,3; 7,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,03</t>
+          <t>3,32; 12,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,04</t>
+          <t>1,04; 6,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,81</t>
+          <t>3,47; 13,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,69</t>
+          <t>2,0; 10,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,53</t>
+          <t>2,31; 10,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,27</t>
+          <t>4,07; 13,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 13,03</t>
+          <t>0,43; 3,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,51</t>
+          <t>1,75; 6,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,05</t>
+          <t>2,69; 10,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,35</t>
+          <t>4,13; 14,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,26</t>
+          <t>3,0; 11,01</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 9,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 6,31</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 5,74</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 10,04</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 10,2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 8,87</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>7,15%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>7,51%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>7,33%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,61</t>
+          <t>3,2; 5,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,99</t>
+          <t>3,23; 6,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,23</t>
+          <t>2,79; 5,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,13</t>
+          <t>4,33; 7,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,66</t>
+          <t>5,49; 8,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,76</t>
+          <t>6,5; 10,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,88</t>
+          <t>4,85; 7,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,35</t>
+          <t>2,16; 3,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,22</t>
+          <t>3,94; 6,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,58</t>
+          <t>4,28; 6,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,64</t>
+          <t>6,05; 9,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,78</t>
+          <t>5,6; 8,65</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 6,29</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 4,51</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 5,42</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 6,98</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 8,59</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 9,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14913</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23675</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3362</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9642</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2920</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2644</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12899</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4933</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12339</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8989</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2782</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>27812</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>28608</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>15701</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>18631</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5702</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3784; 33445</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10062; 46716</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16963</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30003</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1197; 5651</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>965; 6330</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3391; 28583</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17370</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4280; 28324</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2662; 24279</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1222; 4981</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>774; 4068</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13695; 52386</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14054; 56904</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6444; 32050</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6777; 44319</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3403; 8776</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 8200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15569</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24207</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3632</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28085</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11306</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22009</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15932</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>37291</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13845</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>37579</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>40139</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>5968</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7428</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2655; 27572</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12556</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5147; 33280</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8555; 53517</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1642; 6606</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2042; 7527</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12809; 53011</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3066; 23076</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10304; 39497</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3603; 38835</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>954; 4833</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1806; 6228</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20067; 66237</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5869; 27798</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21758; 60541</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>19741; 77421</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>3474; 9633</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4554; 10924</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47477</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40366</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42758</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53064</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3555</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6330</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38424</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9608</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36151</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31548</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2234</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>85901</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>49974</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>78909</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>84612</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7018</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8564</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26354; 73212</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21786; 105262</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20781; 116790</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27908; 99749</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1931; 6304</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3439; 12080</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20286; 61717</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3670; 21039</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23117; 56848</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17242; 50956</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2010; 5373</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1164; 4222</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>58212; 120919</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27158; 102801</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>51615; 139603</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>56231; 132301</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4816; 10062</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>5343; 13950</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21603</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33198</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28519</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>37692</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3190</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5641</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60050</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40455</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53493</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63531</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5551</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>81653</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>73653</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>82012</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>101224</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9419</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9800; 38828</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16577; 70243</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15505; 60169</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22119; 61732</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1511; 5400</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3494; 9305</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40670; 85434</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26529; 58845</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>37761; 75200</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43674; 90610</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3571; 7768</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2339; 5693</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>56502; 108171</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>52638; 109736</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>60485; 112214</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>75614; 132892</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>6075; 12070</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6774; 13133</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35626</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17284</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22412</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32163</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>27751</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27149</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27325</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32914</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3648</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5870</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>63377</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>44433</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>49738</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>65076</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9510</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10499</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18759; 67045</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9353; 33324</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>13018; 36847</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15727; 62881</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3727; 8621</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2912; 7004</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15021; 47167</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15476; 43994</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15042; 45057</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18196; 59647</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2091; 5756</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3978; 8248</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>40223; 96431</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>27824; 65326</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>34125; 71387</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>42063; 99587</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>6915; 12635</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>7994; 13868</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17854</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>34563</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>16473</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>42445</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2279</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2365</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>52417</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11076</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>25743</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>41913</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3716</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>70271</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>45638</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>42217</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>84357</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7234</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>6081</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6925; 37721</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17559; 66094</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5386; 34238</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>19679; 75381</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>910; 4599</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1037; 4702</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28691; 96495</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2926; 27130</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12089; 44041</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19349; 74743</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2593; 8812</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1864; 6840</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>41463; 116911</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>24696; 76420</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>23779; 69437</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>50317; 128999</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>4378; 11048</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>3755; 9505</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>146679</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>151625</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>129095</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>199213</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21437</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>25798</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>219627</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>104528</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>177060</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>194827</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>22736</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>366305</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>256153</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>306155</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>394039</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>44174</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>46577</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>109509; 190450</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>111050; 210615</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>95137; 189424</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>148643; 268496</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16459; 26665</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19531; 32530</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>174180; 278433</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>77799; 137704</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>141981; 222031</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>153539; 246405</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>18299; 27949</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>16888; 26086</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>305320; 440781</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>205370; 317506</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>254895; 379819</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>327003; 490379</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>37546; 51747</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>39113; 55510</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
